--- a/docs/TSEA29MRROBOT1.0.xlsx
+++ b/docs/TSEA29MRROBOT1.0.xlsx
@@ -1304,7 +1304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1609,6 +1609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2188,8 +2189,8 @@
   </sheetPr>
   <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T57" sqref="T57"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2208,160 +2209,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="166"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="167"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="192" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="192"/>
+      <c r="B2" s="193"/>
       <c r="C2" s="35"/>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="169"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="190"/>
+      <c r="B3" s="191"/>
       <c r="C3" s="36"/>
-      <c r="D3" s="175">
+      <c r="D3" s="176">
         <v>15</v>
       </c>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="189" t="s">
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="190"/>
-      <c r="J3" s="193">
+      <c r="I3" s="191"/>
+      <c r="J3" s="194">
         <v>42276</v>
       </c>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="193"/>
-      <c r="P3" s="194"/>
-      <c r="Q3" s="189" t="s">
+      <c r="K3" s="194"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="194"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="194"/>
+      <c r="P3" s="195"/>
+      <c r="Q3" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="190"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="190"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="191"/>
+      <c r="T3" s="191"/>
       <c r="U3" s="64"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="184"/>
+      <c r="B4" s="185"/>
       <c r="C4" s="36"/>
-      <c r="D4" s="177" t="s">
+      <c r="D4" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="183" t="s">
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="184"/>
-      <c r="J4" s="177" t="s">
+      <c r="I4" s="185"/>
+      <c r="J4" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="177"/>
-      <c r="L4" s="177"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="178"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="179"/>
       <c r="Q4" s="37"/>
-      <c r="R4" s="188"/>
-      <c r="S4" s="188"/>
-      <c r="T4" s="188"/>
+      <c r="R4" s="189"/>
+      <c r="S4" s="189"/>
+      <c r="T4" s="189"/>
       <c r="U4" s="38"/>
       <c r="X4" s="76"/>
     </row>
     <row r="5" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="181" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="182"/>
+      <c r="A5" s="182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="183"/>
       <c r="C5" s="39"/>
-      <c r="D5" s="179" t="s">
+      <c r="D5" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="181" t="s">
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="182"/>
-      <c r="J5" s="179" t="s">
+      <c r="I5" s="183"/>
+      <c r="J5" s="180" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="179"/>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="185"/>
-      <c r="R5" s="186"/>
-      <c r="S5" s="186"/>
-      <c r="T5" s="186"/>
-      <c r="U5" s="187"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="186"/>
+      <c r="R5" s="187"/>
+      <c r="S5" s="187"/>
+      <c r="T5" s="187"/>
+      <c r="U5" s="188"/>
     </row>
     <row r="6" spans="1:25" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="170"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
       <c r="E6" s="49"/>
       <c r="F6" s="49"/>
       <c r="G6" s="50" t="s">
@@ -2370,32 +2371,32 @@
       <c r="H6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="169" t="s">
+      <c r="I6" s="170" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="170"/>
-      <c r="P6" s="170"/>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="170"/>
-      <c r="S6" s="170"/>
-      <c r="T6" s="170"/>
-      <c r="U6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="171"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="171"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="171"/>
+      <c r="Q6" s="171"/>
+      <c r="R6" s="171"/>
+      <c r="S6" s="171"/>
+      <c r="T6" s="171"/>
+      <c r="U6" s="172"/>
       <c r="W6" s="84"/>
     </row>
     <row r="7" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="175"/>
       <c r="E7" s="41"/>
       <c r="F7" s="41" t="s">
         <v>72</v>
@@ -2451,11 +2452,11 @@
       <c r="A8" s="46">
         <v>1</v>
       </c>
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="151"/>
       <c r="E8" s="6"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5">
@@ -2487,11 +2488,11 @@
       <c r="A9" s="46">
         <v>2</v>
       </c>
-      <c r="B9" s="148" t="s">
+      <c r="B9" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
         <v>1</v>
@@ -2526,11 +2527,11 @@
       <c r="A10" s="46">
         <v>3</v>
       </c>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="150"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="151"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7">
@@ -2562,11 +2563,11 @@
       <c r="A11" s="46">
         <v>4</v>
       </c>
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="149"/>
-      <c r="D11" s="150"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="151"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
         <v>3</v>
@@ -2602,11 +2603,11 @@
       <c r="A12" s="46">
         <v>5</v>
       </c>
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="151"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7">
@@ -2639,11 +2640,11 @@
       <c r="A13" s="46">
         <v>6</v>
       </c>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="149"/>
-      <c r="D13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
         <v>5</v>
@@ -2678,11 +2679,11 @@
       <c r="A14" s="46">
         <v>7</v>
       </c>
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="149"/>
-      <c r="D14" s="150"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="151"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7">
@@ -2716,11 +2717,11 @@
       <c r="A15" s="46">
         <v>8</v>
       </c>
-      <c r="B15" s="148" t="s">
+      <c r="B15" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="149"/>
-      <c r="D15" s="150"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="151"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6">
         <v>7</v>
@@ -2756,11 +2757,11 @@
       <c r="A16" s="46">
         <v>9</v>
       </c>
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="149"/>
-      <c r="D16" s="150"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="151"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7">
@@ -2789,16 +2790,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V16" s="148"/>
+      <c r="W16" s="148"/>
+    </row>
+    <row r="17" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46">
         <v>10</v>
       </c>
-      <c r="B17" s="148" t="s">
+      <c r="B17" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="149"/>
-      <c r="D17" s="150"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="151"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6">
         <v>9</v>
@@ -2830,15 +2833,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="46">
         <v>11</v>
       </c>
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="149"/>
-      <c r="D18" s="150"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="151"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7">
@@ -2868,15 +2871,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46">
         <v>12</v>
       </c>
-      <c r="B19" s="148" t="s">
+      <c r="B19" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="149"/>
-      <c r="D19" s="150"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="151"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7">
@@ -2903,16 +2906,17 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V19" s="148"/>
+    </row>
+    <row r="20" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46">
         <v>13</v>
       </c>
-      <c r="B20" s="148" t="s">
+      <c r="B20" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="149"/>
-      <c r="D20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="151"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6">
         <v>11</v>
@@ -2944,15 +2948,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46">
         <v>14</v>
       </c>
-      <c r="B21" s="148" t="s">
+      <c r="B21" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="149"/>
-      <c r="D21" s="150"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="151"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7">
@@ -2979,16 +2983,17 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="76"/>
+    </row>
+    <row r="22" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46">
         <v>15</v>
       </c>
-      <c r="B22" s="157" t="s">
+      <c r="B22" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="151"/>
       <c r="E22" s="12"/>
       <c r="F22" s="85">
         <v>12</v>
@@ -3018,15 +3023,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46">
         <v>16</v>
       </c>
-      <c r="B23" s="148" t="s">
+      <c r="B23" s="149" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="149"/>
-      <c r="D23" s="150"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="151"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7">
@@ -3054,15 +3059,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="46">
         <v>17</v>
       </c>
-      <c r="B24" s="148" t="s">
+      <c r="B24" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="149"/>
-      <c r="D24" s="150"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="151"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="8">
@@ -3090,15 +3095,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46">
         <v>18</v>
       </c>
-      <c r="B25" s="148" t="s">
+      <c r="B25" s="149" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="149"/>
-      <c r="D25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="151"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6">
         <v>16</v>
@@ -3128,15 +3133,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46">
         <v>19</v>
       </c>
-      <c r="B26" s="148" t="s">
+      <c r="B26" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="149"/>
-      <c r="D26" s="150"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="151"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="8">
@@ -3164,15 +3169,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46">
         <v>20</v>
       </c>
-      <c r="B27" s="148" t="s">
+      <c r="B27" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="149"/>
-      <c r="D27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="151"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7">
@@ -3200,15 +3205,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="46">
         <v>21</v>
       </c>
-      <c r="B28" s="148" t="s">
+      <c r="B28" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="151"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7">
@@ -3236,15 +3241,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="46">
         <v>22</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="149"/>
-      <c r="D29" s="150"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17">
         <v>15</v>
@@ -3274,15 +3279,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="46">
         <v>23</v>
       </c>
-      <c r="B30" s="148" t="s">
+      <c r="B30" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="149"/>
-      <c r="D30" s="150"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="151"/>
       <c r="E30" s="6"/>
       <c r="F30" s="83"/>
       <c r="G30" s="19">
@@ -3312,15 +3317,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="46">
         <v>24</v>
       </c>
-      <c r="B31" s="148" t="s">
+      <c r="B31" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="150"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="151"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6">
         <v>14</v>
@@ -3352,15 +3357,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="46">
         <v>25</v>
       </c>
-      <c r="B32" s="148" t="s">
+      <c r="B32" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="151"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7">
@@ -3394,11 +3399,11 @@
       <c r="A33" s="46">
         <v>26</v>
       </c>
-      <c r="B33" s="148" t="s">
+      <c r="B33" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="151"/>
       <c r="E33" s="6"/>
       <c r="F33" s="83">
         <v>6</v>
@@ -3434,11 +3439,11 @@
       <c r="A34" s="46">
         <v>27</v>
       </c>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="149"/>
-      <c r="D34" s="150"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="151"/>
       <c r="E34" s="6"/>
       <c r="F34" s="86" t="s">
         <v>77</v>
@@ -3474,11 +3479,11 @@
       <c r="A35" s="46">
         <v>28</v>
       </c>
-      <c r="B35" s="148" t="s">
+      <c r="B35" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="149"/>
-      <c r="D35" s="150"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="151"/>
       <c r="E35" s="6"/>
       <c r="F35" s="86" t="s">
         <v>78</v>
@@ -3512,11 +3517,11 @@
       <c r="A36" s="46">
         <v>29</v>
       </c>
-      <c r="B36" s="148" t="s">
+      <c r="B36" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="149"/>
-      <c r="D36" s="150"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="151"/>
       <c r="E36" s="6"/>
       <c r="F36" s="83">
         <v>23</v>
@@ -3552,11 +3557,11 @@
       <c r="A37" s="46">
         <v>30</v>
       </c>
-      <c r="B37" s="148" t="s">
+      <c r="B37" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="150"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="151"/>
       <c r="E37" s="6"/>
       <c r="F37" s="83">
         <v>8</v>
@@ -3590,11 +3595,11 @@
       <c r="A38" s="46">
         <v>31</v>
       </c>
-      <c r="B38" s="148" t="s">
+      <c r="B38" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="149"/>
-      <c r="D38" s="150"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="151"/>
       <c r="E38" s="6"/>
       <c r="F38" s="83">
         <v>8</v>
@@ -3628,11 +3633,11 @@
       <c r="A39" s="46">
         <v>32</v>
       </c>
-      <c r="B39" s="148" t="s">
+      <c r="B39" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="149"/>
-      <c r="D39" s="150"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="151"/>
       <c r="E39" s="6"/>
       <c r="F39" s="83">
         <v>8</v>
@@ -3666,11 +3671,11 @@
       <c r="A40" s="46">
         <v>33</v>
       </c>
-      <c r="B40" s="148" t="s">
+      <c r="B40" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="149"/>
-      <c r="D40" s="150"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="151"/>
       <c r="E40" s="6"/>
       <c r="F40" s="83">
         <v>13.15</v>
@@ -3704,11 +3709,11 @@
       <c r="A41" s="46">
         <v>34</v>
       </c>
-      <c r="B41" s="148" t="s">
+      <c r="B41" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="150"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="151"/>
       <c r="E41" s="4"/>
       <c r="F41" s="6"/>
       <c r="G41" s="16">
@@ -3740,11 +3745,11 @@
       <c r="A42" s="46">
         <v>35</v>
       </c>
-      <c r="B42" s="148" t="s">
+      <c r="B42" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="150"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="151"/>
       <c r="E42" s="6"/>
       <c r="F42" s="84"/>
       <c r="G42" s="16">
@@ -3780,11 +3785,11 @@
       <c r="A43" s="46">
         <v>36</v>
       </c>
-      <c r="B43" s="148" t="s">
+      <c r="B43" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="149"/>
-      <c r="D43" s="150"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="151"/>
       <c r="E43" s="6"/>
       <c r="F43" s="83"/>
       <c r="G43" s="16">
@@ -3816,11 +3821,11 @@
       <c r="A44" s="46">
         <v>37</v>
       </c>
-      <c r="B44" s="148" t="s">
+      <c r="B44" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="158"/>
-      <c r="D44" s="159"/>
+      <c r="C44" s="159"/>
+      <c r="D44" s="160"/>
       <c r="E44" s="6"/>
       <c r="F44" s="83"/>
       <c r="G44" s="16">
@@ -3860,11 +3865,11 @@
       <c r="A45" s="46">
         <v>38</v>
       </c>
-      <c r="B45" s="148" t="s">
+      <c r="B45" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="158"/>
-      <c r="D45" s="159"/>
+      <c r="C45" s="159"/>
+      <c r="D45" s="160"/>
       <c r="E45" s="6"/>
       <c r="F45" s="83"/>
       <c r="G45" s="16">
@@ -3896,11 +3901,11 @@
       <c r="A46" s="46">
         <v>39</v>
       </c>
-      <c r="B46" s="148" t="s">
+      <c r="B46" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="158"/>
-      <c r="D46" s="159"/>
+      <c r="C46" s="159"/>
+      <c r="D46" s="160"/>
       <c r="E46" s="6"/>
       <c r="F46" s="83"/>
       <c r="G46" s="16">
@@ -3932,11 +3937,11 @@
       <c r="A47" s="46">
         <v>40</v>
       </c>
-      <c r="B47" s="148" t="s">
+      <c r="B47" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="158"/>
-      <c r="D47" s="159"/>
+      <c r="C47" s="159"/>
+      <c r="D47" s="160"/>
       <c r="E47" s="6"/>
       <c r="F47" s="83"/>
       <c r="G47" s="16">
@@ -3968,11 +3973,11 @@
       <c r="A48" s="46">
         <v>41</v>
       </c>
-      <c r="B48" s="148" t="s">
+      <c r="B48" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="158"/>
-      <c r="D48" s="159"/>
+      <c r="C48" s="159"/>
+      <c r="D48" s="160"/>
       <c r="E48" s="6"/>
       <c r="F48" s="83"/>
       <c r="G48" s="16">
@@ -4004,11 +4009,11 @@
       <c r="A49" s="46">
         <v>42</v>
       </c>
-      <c r="B49" s="160" t="s">
+      <c r="B49" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="161"/>
-      <c r="D49" s="162"/>
+      <c r="C49" s="162"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="91"/>
       <c r="F49" s="92"/>
       <c r="G49" s="93">
@@ -4045,11 +4050,11 @@
       <c r="A50" s="46">
         <v>43</v>
       </c>
-      <c r="B50" s="163" t="s">
+      <c r="B50" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="149"/>
-      <c r="D50" s="150"/>
+      <c r="C50" s="150"/>
+      <c r="D50" s="151"/>
       <c r="E50" s="6"/>
       <c r="F50" s="83"/>
       <c r="G50" s="16">
@@ -4087,9 +4092,9 @@
       <c r="A51" s="46">
         <v>44</v>
       </c>
-      <c r="B51" s="151"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="153"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="154"/>
       <c r="E51" s="83"/>
       <c r="F51" s="83"/>
       <c r="G51" s="32"/>
@@ -4115,11 +4120,11 @@
       <c r="A52" s="130">
         <v>45</v>
       </c>
-      <c r="B52" s="154" t="s">
+      <c r="B52" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="155"/>
-      <c r="D52" s="156"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="157"/>
       <c r="E52" s="131"/>
       <c r="F52" s="15"/>
       <c r="G52" s="16">
@@ -4995,7 +5000,7 @@
   <dimension ref="A1:AE34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:AD3"/>
+      <selection activeCell="AD34" sqref="AD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5010,236 +5015,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
-      <c r="V1" s="198"/>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="198"/>
-      <c r="AA1" s="198"/>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="198"/>
-      <c r="AD1" s="199"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="199"/>
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="199"/>
+      <c r="AD1" s="200"/>
     </row>
     <row r="2" spans="1:31" s="3" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="203"/>
+      <c r="B2" s="204"/>
       <c r="C2" s="52"/>
-      <c r="D2" s="200" t="str">
+      <c r="D2" s="201" t="str">
         <f>Basplan!D2</f>
         <v>MR.ROBOT</v>
       </c>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="200"/>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="200"/>
-      <c r="AD2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="201"/>
+      <c r="S2" s="201"/>
+      <c r="T2" s="201"/>
+      <c r="U2" s="201"/>
+      <c r="V2" s="201"/>
+      <c r="W2" s="201"/>
+      <c r="X2" s="201"/>
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="201"/>
+      <c r="AA2" s="201"/>
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="201"/>
+      <c r="AD2" s="202"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="205"/>
+      <c r="B3" s="206"/>
       <c r="C3" s="53"/>
-      <c r="D3" s="206">
+      <c r="D3" s="207">
         <f>Basplan!D3</f>
         <v>15</v>
       </c>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="189" t="s">
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="210"/>
-      <c r="N3" s="210"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="210"/>
-      <c r="R3" s="210"/>
-      <c r="S3" s="210"/>
-      <c r="T3" s="210"/>
-      <c r="U3" s="210"/>
-      <c r="V3" s="210"/>
-      <c r="W3" s="210"/>
-      <c r="X3" s="210"/>
-      <c r="Y3" s="210"/>
-      <c r="Z3" s="210"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="210"/>
-      <c r="AC3" s="210"/>
-      <c r="AD3" s="211"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="194"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="211"/>
+      <c r="Q3" s="211"/>
+      <c r="R3" s="211"/>
+      <c r="S3" s="211"/>
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211"/>
+      <c r="W3" s="211"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="211"/>
+      <c r="Z3" s="211"/>
+      <c r="AA3" s="211"/>
+      <c r="AB3" s="211"/>
+      <c r="AC3" s="211"/>
+      <c r="AD3" s="212"/>
     </row>
     <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="225"/>
+      <c r="B4" s="226"/>
       <c r="C4" s="54"/>
-      <c r="D4" s="226" t="str">
+      <c r="D4" s="227" t="str">
         <f>Basplan!D4</f>
         <v>Tomas Svensson</v>
       </c>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="228"/>
-      <c r="H4" s="215" t="s">
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="216" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="216"/>
-      <c r="J4" s="216"/>
-      <c r="K4" s="216"/>
-      <c r="L4" s="217"/>
-      <c r="M4" s="218"/>
-      <c r="N4" s="218"/>
-      <c r="O4" s="218"/>
-      <c r="P4" s="218"/>
-      <c r="Q4" s="218"/>
-      <c r="R4" s="218"/>
-      <c r="S4" s="218"/>
-      <c r="T4" s="218"/>
-      <c r="U4" s="218"/>
-      <c r="V4" s="218"/>
-      <c r="W4" s="218"/>
-      <c r="X4" s="218"/>
-      <c r="Y4" s="218"/>
-      <c r="Z4" s="218"/>
-      <c r="AA4" s="218"/>
-      <c r="AB4" s="218"/>
-      <c r="AC4" s="218"/>
-      <c r="AD4" s="219"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="218"/>
+      <c r="M4" s="219"/>
+      <c r="N4" s="219"/>
+      <c r="O4" s="219"/>
+      <c r="P4" s="219"/>
+      <c r="Q4" s="219"/>
+      <c r="R4" s="219"/>
+      <c r="S4" s="219"/>
+      <c r="T4" s="219"/>
+      <c r="U4" s="219"/>
+      <c r="V4" s="219"/>
+      <c r="W4" s="219"/>
+      <c r="X4" s="219"/>
+      <c r="Y4" s="219"/>
+      <c r="Z4" s="219"/>
+      <c r="AA4" s="219"/>
+      <c r="AB4" s="219"/>
+      <c r="AC4" s="219"/>
+      <c r="AD4" s="220"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="229" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="230"/>
+      <c r="A5" s="230" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="231"/>
       <c r="C5" s="55"/>
-      <c r="D5" s="231" t="str">
+      <c r="D5" s="232" t="str">
         <f>Basplan!D5</f>
         <v>TSEA29</v>
       </c>
-      <c r="E5" s="232"/>
-      <c r="F5" s="232"/>
-      <c r="G5" s="233"/>
-      <c r="H5" s="214"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="186"/>
-      <c r="M5" s="186"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="186"/>
-      <c r="Q5" s="186"/>
-      <c r="R5" s="186"/>
-      <c r="S5" s="186"/>
-      <c r="T5" s="186"/>
-      <c r="U5" s="186"/>
-      <c r="V5" s="186"/>
-      <c r="W5" s="186"/>
-      <c r="X5" s="186"/>
-      <c r="Y5" s="186"/>
-      <c r="Z5" s="186"/>
-      <c r="AA5" s="186"/>
-      <c r="AB5" s="186"/>
-      <c r="AC5" s="186"/>
-      <c r="AD5" s="187"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
+      <c r="G5" s="234"/>
+      <c r="H5" s="215"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="187"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="187"/>
+      <c r="P5" s="187"/>
+      <c r="Q5" s="187"/>
+      <c r="R5" s="187"/>
+      <c r="S5" s="187"/>
+      <c r="T5" s="187"/>
+      <c r="U5" s="187"/>
+      <c r="V5" s="187"/>
+      <c r="W5" s="187"/>
+      <c r="X5" s="187"/>
+      <c r="Y5" s="187"/>
+      <c r="Z5" s="187"/>
+      <c r="AA5" s="187"/>
+      <c r="AB5" s="187"/>
+      <c r="AC5" s="187"/>
+      <c r="AD5" s="188"/>
     </row>
     <row r="6" spans="1:31" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="223" t="s">
+      <c r="A6" s="224" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="224"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="220" t="s">
+      <c r="B6" s="225"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="221" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
-      <c r="K6" s="221"/>
-      <c r="L6" s="221"/>
-      <c r="M6" s="221"/>
-      <c r="N6" s="221"/>
-      <c r="O6" s="221"/>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="221"/>
-      <c r="R6" s="221"/>
-      <c r="S6" s="221"/>
-      <c r="T6" s="221"/>
-      <c r="U6" s="221"/>
-      <c r="V6" s="221"/>
-      <c r="W6" s="221"/>
-      <c r="X6" s="221"/>
-      <c r="Y6" s="221"/>
-      <c r="Z6" s="221"/>
-      <c r="AA6" s="221"/>
-      <c r="AB6" s="221"/>
-      <c r="AC6" s="221"/>
-      <c r="AD6" s="222"/>
+      <c r="H6" s="222"/>
+      <c r="I6" s="222"/>
+      <c r="J6" s="222"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="222"/>
+      <c r="M6" s="222"/>
+      <c r="N6" s="222"/>
+      <c r="O6" s="222"/>
+      <c r="P6" s="222"/>
+      <c r="Q6" s="222"/>
+      <c r="R6" s="222"/>
+      <c r="S6" s="222"/>
+      <c r="T6" s="222"/>
+      <c r="U6" s="222"/>
+      <c r="V6" s="222"/>
+      <c r="W6" s="222"/>
+      <c r="X6" s="222"/>
+      <c r="Y6" s="222"/>
+      <c r="Z6" s="222"/>
+      <c r="AA6" s="222"/>
+      <c r="AB6" s="222"/>
+      <c r="AC6" s="222"/>
+      <c r="AD6" s="223"/>
     </row>
     <row r="7" spans="1:31" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
       <c r="G7" s="42">
         <f>Basplan!J7</f>
         <v>41</v>
@@ -5338,11 +5343,11 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="61"/>
-      <c r="B8" s="212"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="214"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
       <c r="G8" s="23"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -5373,11 +5378,11 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="61"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
       <c r="G9" s="26"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
@@ -5408,11 +5413,11 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="61"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
       <c r="G10" s="26"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
@@ -5443,11 +5448,11 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="61"/>
-      <c r="B11" s="163"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
       <c r="G11" s="26"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -5478,11 +5483,11 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="61"/>
-      <c r="B12" s="163"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
       <c r="G12" s="26"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
@@ -5514,11 +5519,11 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="61"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
       <c r="G13" s="26"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -5549,11 +5554,11 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="61"/>
-      <c r="B14" s="163"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
       <c r="G14" s="26"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -5584,11 +5589,11 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="61"/>
-      <c r="B15" s="163"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
       <c r="G15" s="26"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -5619,11 +5624,11 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="61"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
       <c r="G16" s="26"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -5654,11 +5659,11 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="61"/>
-      <c r="B17" s="163"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
       <c r="G17" s="26"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -5689,11 +5694,11 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="61"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
       <c r="G18" s="26"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
@@ -5724,11 +5729,11 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="61"/>
-      <c r="B19" s="163"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
       <c r="G19" s="26"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
@@ -5759,11 +5764,11 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="61"/>
-      <c r="B20" s="163"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
       <c r="G20" s="26"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -5794,11 +5799,11 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="61"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
       <c r="G21" s="26"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
@@ -5829,11 +5834,11 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="61"/>
-      <c r="B22" s="163"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
       <c r="G22" s="26"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
@@ -5864,11 +5869,11 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="61"/>
-      <c r="B23" s="163"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
       <c r="G23" s="26"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
@@ -5899,11 +5904,11 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="61"/>
-      <c r="B24" s="163"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
       <c r="G24" s="26"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
@@ -5934,11 +5939,11 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="61"/>
-      <c r="B25" s="163"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
       <c r="G25" s="26"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
@@ -5969,11 +5974,11 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="61"/>
-      <c r="B26" s="163"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
       <c r="G26" s="26"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
@@ -6004,11 +6009,11 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="61"/>
-      <c r="B27" s="163"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
       <c r="G27" s="26"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
@@ -6039,11 +6044,11 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="62"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
       <c r="G28" s="26"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
@@ -6074,11 +6079,11 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="62"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
       <c r="G29" s="26"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
@@ -6109,11 +6114,11 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="61"/>
-      <c r="B30" s="163"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
       <c r="G30" s="26"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
@@ -6144,11 +6149,11 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="61"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
       <c r="G31" s="26"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
@@ -6179,11 +6184,11 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="61"/>
-      <c r="B32" s="163"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
       <c r="G32" s="26"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
@@ -6214,11 +6219,11 @@
     </row>
     <row r="33" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61"/>
-      <c r="B33" s="195"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
+      <c r="B33" s="196"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
       <c r="G33" s="29"/>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -6249,13 +6254,13 @@
     </row>
     <row r="34" spans="1:30" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
-      <c r="B34" s="196" t="s">
+      <c r="B34" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="196"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="196"/>
+      <c r="C34" s="197"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="197"/>
+      <c r="F34" s="197"/>
       <c r="G34" s="63">
         <f>SUM(G8:G33)</f>
         <v>0</v>
